--- a/clcore_ig/output/StructureDefinition-CoreDiagnosticoCl.xlsx
+++ b/clcore_ig/output/StructureDefinition-CoreDiagnosticoCl.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-07T17:15:51-03:00</t>
+    <t>2024-09-26T12:51:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -735,7 +735,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl|Group)
 </t>
   </si>
   <si>
@@ -839,7 +839,7 @@
     <t>Condition.subject.identifier</t>
   </si>
   <si>
-    <t>Identificador del paciente</t>
+    <t>Logical reference, when literal reference is not known</t>
   </si>
   <si>
     <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
@@ -860,7 +860,7 @@
     <t>Condition.subject.display</t>
   </si>
   <si>
-    <t>Texto alternativo para el recurso</t>
+    <t>Text alternative for the resource</t>
   </si>
   <si>
     <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
@@ -1541,7 +1541,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.16015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.33984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3041,7 +3041,7 @@
         <v>92</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>93</v>
@@ -4241,7 +4241,7 @@
         <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>80</v>
@@ -4361,7 +4361,7 @@
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>80</v>
